--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Cost_Breakdown_by_Phase.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Cost_Breakdown_by_Phase.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="By Phase" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="By Phase" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +562,474 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21752</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>48759</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2256</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14238</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21010</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25021</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>40077</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3329</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6038</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31360</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34912</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11440</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26707</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15643</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>46739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21694</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36893</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>45674</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5436</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32891</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18914</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>36656</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10200</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29448</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5749</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7662</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21504</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20952</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16659</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15082</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26556</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28302</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24288</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>29470</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48750</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>21276</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>48329</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6810</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3649</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20516</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>27138</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5315</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3026</v>
+      </c>
+      <c r="C32" t="n">
+        <v>49662</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15804</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27577</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
